--- a/output7/【河洛文讀注音-閩拼調號】《前赤壁賦》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《前赤壁賦》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC24AE4-9093-490F-B275-0A160C72CC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B984DF-3EAD-4A84-8C6D-83EBF9D23ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{4EA0A38C-B750-42E9-B691-0F234429BA61}"/>
+    <workbookView xWindow="67080" yWindow="-105" windowWidth="16440" windowHeight="28320" xr2:uid="{4EA0A38C-B750-42E9-B691-0F234429BA61}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -6624,10 +6624,6 @@
     <t>IMAGE_URL</t>
   </si>
   <si>
-    <t>Gui-Ku-Lai-Su.png</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>OUTPUT_PATH</t>
   </si>
   <si>
@@ -6700,9 +6696,6 @@
     <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
-    <t>雅俗通</t>
-  </si>
-  <si>
     <t>φ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6751,6 +6744,13 @@
   </si>
   <si>
     <t>【河洛文讀注音-閩拼調號】《前赤壁賦》.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>閩拼調符</t>
+  </si>
+  <si>
+    <t>Zian-Cik-Pik-Hu.jpg</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9306,8 +9306,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -9355,7 +9355,7 @@
         <v>1858</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -9363,7 +9363,7 @@
         <v>1859</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9371,7 +9371,7 @@
         <v>1860</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>1861</v>
+        <v>1898</v>
       </c>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
@@ -9384,23 +9384,23 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="86" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C8" s="91" t="s">
         <v>1862</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="30">
       <c r="B9" s="83" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C9" s="84" t="s">
         <v>1864</v>
-      </c>
-      <c r="C9" s="84" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="92" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C10" s="84" t="b">
         <v>1</v>
@@ -9408,7 +9408,7 @@
     </row>
     <row r="11" spans="2:11" ht="30">
       <c r="B11" s="83" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C11" s="84">
         <v>34</v>
@@ -9416,7 +9416,7 @@
     </row>
     <row r="12" spans="2:11" ht="30">
       <c r="B12" s="83" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C12" s="84">
         <v>15</v>
@@ -9424,55 +9424,55 @@
     </row>
     <row r="13" spans="2:11" ht="30">
       <c r="B13" s="83" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C13" s="93" t="s">
         <v>1869</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>1870</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
       <c r="B14" s="83" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C14" s="93" t="s">
         <v>1871</v>
-      </c>
-      <c r="C14" s="93" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="30">
       <c r="B15" s="83" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C15" s="93" t="s">
         <v>1873</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
       <c r="B16" s="83" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C16" s="93" t="s">
         <v>1875</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
       <c r="B17" s="83" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C17" s="93" t="s">
         <v>1877</v>
-      </c>
-      <c r="C17" s="93" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
       <c r="B18" s="83" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>1882</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
       <c r="B19" s="83" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C19" s="93" t="s">
         <v>1067</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="20" spans="2:3" ht="30">
       <c r="B20" s="83" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C20" s="94">
         <v>0</v>
@@ -19822,7 +19822,7 @@
       </c>
       <c r="I3" s="74"/>
       <c r="J3" s="74" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="33.75">
@@ -19856,7 +19856,7 @@
         <v>́</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="33.75">
@@ -19890,7 +19890,7 @@
         <v>̀</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="33.75">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.75">
@@ -19955,7 +19955,7 @@
         <v>̂</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="33.75">
@@ -19989,7 +19989,7 @@
         <v>̌</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="33.75">
@@ -20023,7 +20023,7 @@
         <v>̄</v>
       </c>
       <c r="J9" s="74" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="33.75">
@@ -20057,7 +20057,7 @@
         <v>̍</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
   </sheetData>
@@ -20111,16 +20111,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>1850</v>
@@ -20243,16 +20243,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D7" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E7" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F7" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H7" s="80" t="s">
         <v>1850</v>
@@ -20321,16 +20321,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D10" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E10" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F10" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H10" s="80" t="s">
         <v>1850</v>
@@ -20402,16 +20402,16 @@
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H13" s="80" t="s">
         <v>1850</v>
@@ -20535,16 +20535,16 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D18" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E18" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F18" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H18" s="80" t="s">
         <v>1850</v>
@@ -20653,16 +20653,16 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D23" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E23" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F23" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -20716,7 +20716,7 @@
         <v>946</v>
       </c>
       <c r="D26" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E26" t="s">
         <v>570</v>
@@ -20796,7 +20796,7 @@
         <v>949</v>
       </c>
       <c r="D30" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E30" t="s">
         <v>587</v>
@@ -20816,7 +20816,7 @@
         <v>950</v>
       </c>
       <c r="D31" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E31" t="s">
         <v>570</v>
@@ -20910,16 +20910,16 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D36" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E36" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F36" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -20950,7 +20950,7 @@
         <v>1810</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D38" t="s">
         <v>569</v>
@@ -21007,16 +21007,16 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D41" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E41" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F41" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -21104,16 +21104,16 @@
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D46" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E46" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F46" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -21201,16 +21201,16 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D51" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E51" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F51" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -21318,16 +21318,16 @@
         <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D57" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E57" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F57" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -21361,7 +21361,7 @@
         <v>958</v>
       </c>
       <c r="D59" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E59" t="s">
         <v>633</v>
@@ -21435,16 +21435,16 @@
         <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D63" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E63" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F63" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -21455,16 +21455,16 @@
       </c>
       <c r="B64" s="95"/>
       <c r="C64" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D64" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E64" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F64" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H64" s="80" t="s">
         <v>1850</v>
@@ -21506,7 +21506,7 @@
         <v>960</v>
       </c>
       <c r="D66" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E66" t="s">
         <v>562</v>
@@ -21520,16 +21520,16 @@
         <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D67" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E67" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F67" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -21583,7 +21583,7 @@
         <v>950</v>
       </c>
       <c r="D70" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E70" t="s">
         <v>570</v>
@@ -21677,16 +21677,16 @@
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D75" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E75" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F75" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -21740,7 +21740,7 @@
         <v>950</v>
       </c>
       <c r="D78" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E78" t="s">
         <v>570</v>
@@ -21834,16 +21834,16 @@
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D83" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E83" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F83" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -21931,16 +21931,16 @@
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D88" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E88" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F88" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -22028,16 +22028,16 @@
         <v>126</v>
       </c>
       <c r="C93" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D93" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E93" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F93" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -22071,7 +22071,7 @@
         <v>966</v>
       </c>
       <c r="D95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E95" t="s">
         <v>589</v>
@@ -22091,7 +22091,7 @@
         <v>967</v>
       </c>
       <c r="D96" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E96" t="s">
         <v>618</v>
@@ -22165,16 +22165,16 @@
         <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D100" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E100" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F100" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -22302,16 +22302,16 @@
         <v>54</v>
       </c>
       <c r="C107" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D107" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E107" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F107" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -22462,7 +22462,7 @@
         <v>1810</v>
       </c>
       <c r="C115" s="51" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D115" t="s">
         <v>569</v>
@@ -22479,16 +22479,16 @@
         <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D116" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E116" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F116" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -22616,16 +22616,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D123" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E123" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F123" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -22719,7 +22719,7 @@
         <v>971</v>
       </c>
       <c r="D128" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E128" t="s">
         <v>618</v>
@@ -22793,16 +22793,16 @@
         <v>29</v>
       </c>
       <c r="C132" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D132" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E132" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F132" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -22816,7 +22816,7 @@
         <v>946</v>
       </c>
       <c r="D133" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E133" t="s">
         <v>570</v>
@@ -22910,16 +22910,16 @@
         <v>54</v>
       </c>
       <c r="C138" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D138" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E138" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F138" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -22933,7 +22933,7 @@
         <v>950</v>
       </c>
       <c r="D139" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E139" t="s">
         <v>570</v>
@@ -22973,7 +22973,7 @@
         <v>975</v>
       </c>
       <c r="D141" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E141" t="s">
         <v>581</v>
@@ -23047,16 +23047,16 @@
         <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D145" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E145" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F145" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -23164,16 +23164,16 @@
         <v>54</v>
       </c>
       <c r="C151" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D151" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E151" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F151" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -23207,7 +23207,7 @@
         <v>976</v>
       </c>
       <c r="D153" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E153" t="s">
         <v>592</v>
@@ -23221,16 +23221,16 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D154" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E154" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F154" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -23238,16 +23238,16 @@
         <v>196</v>
       </c>
       <c r="C155" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D155" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E155" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F155" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -23355,16 +23355,16 @@
         <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D161" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E161" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F161" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -23512,16 +23512,16 @@
         <v>54</v>
       </c>
       <c r="C169" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D169" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E169" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F169" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -23595,7 +23595,7 @@
         <v>979</v>
       </c>
       <c r="D173" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E173" t="s">
         <v>570</v>
@@ -23629,16 +23629,16 @@
         <v>29</v>
       </c>
       <c r="C175" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D175" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E175" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F175" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -23752,7 +23752,7 @@
         <v>966</v>
       </c>
       <c r="D181" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E181" t="s">
         <v>589</v>
@@ -23769,7 +23769,7 @@
         <v>1818</v>
       </c>
       <c r="C182" s="51" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D182" t="s">
         <v>569</v>
@@ -23786,16 +23786,16 @@
         <v>54</v>
       </c>
       <c r="C183" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D183" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E183" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F183" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -23803,16 +23803,16 @@
         <v>228</v>
       </c>
       <c r="C184" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D184" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E184" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F184" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -23823,16 +23823,16 @@
       </c>
       <c r="B185" s="95"/>
       <c r="C185" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D185" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E185" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F185" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H185" s="80" t="s">
         <v>1850</v>
@@ -23874,7 +23874,7 @@
         <v>981</v>
       </c>
       <c r="D187" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E187" t="s">
         <v>587</v>
@@ -23968,16 +23968,16 @@
         <v>29</v>
       </c>
       <c r="C192" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D192" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E192" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F192" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -23991,7 +23991,7 @@
         <v>983</v>
       </c>
       <c r="D193" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E193" t="s">
         <v>585</v>
@@ -24085,16 +24085,16 @@
         <v>29</v>
       </c>
       <c r="C198" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D198" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E198" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F198" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -24148,7 +24148,7 @@
         <v>984</v>
       </c>
       <c r="D201" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E201" t="s">
         <v>577</v>
@@ -24168,7 +24168,7 @@
         <v>984</v>
       </c>
       <c r="D202" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E202" t="s">
         <v>577</v>
@@ -24202,16 +24202,16 @@
         <v>29</v>
       </c>
       <c r="C204" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D204" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E204" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F204" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -24245,7 +24245,7 @@
         <v>985</v>
       </c>
       <c r="D206" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E206" t="s">
         <v>603</v>
@@ -24299,16 +24299,16 @@
         <v>29</v>
       </c>
       <c r="C209" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D209" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E209" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F209" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -24396,16 +24396,16 @@
         <v>29</v>
       </c>
       <c r="C214" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D214" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E214" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F214" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -24419,7 +24419,7 @@
         <v>979</v>
       </c>
       <c r="D215" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E215" t="s">
         <v>570</v>
@@ -24439,7 +24439,7 @@
         <v>986</v>
       </c>
       <c r="D216" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E216" t="s">
         <v>581</v>
@@ -24493,16 +24493,16 @@
         <v>29</v>
       </c>
       <c r="C219" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D219" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E219" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F219" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -24590,16 +24590,16 @@
         <v>54</v>
       </c>
       <c r="C224" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D224" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E224" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F224" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -24633,7 +24633,7 @@
         <v>988</v>
       </c>
       <c r="D226" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E226" t="s">
         <v>587</v>
@@ -24727,16 +24727,16 @@
         <v>29</v>
       </c>
       <c r="C231" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D231" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E231" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F231" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -24864,16 +24864,16 @@
         <v>54</v>
       </c>
       <c r="C238" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D238" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E238" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F238" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -24924,7 +24924,7 @@
         <v>1816</v>
       </c>
       <c r="C241" s="51" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="D241" t="s">
         <v>564</v>
@@ -24961,16 +24961,16 @@
         <v>29</v>
       </c>
       <c r="C243" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D243" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E243" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F243" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -25058,16 +25058,16 @@
         <v>29</v>
       </c>
       <c r="C248" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D248" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E248" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F248" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -25141,7 +25141,7 @@
         <v>976</v>
       </c>
       <c r="D252" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E252" t="s">
         <v>592</v>
@@ -25155,16 +25155,16 @@
         <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D253" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E253" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F253" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -25172,16 +25172,16 @@
         <v>196</v>
       </c>
       <c r="C254" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D254" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E254" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F254" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -25215,7 +25215,7 @@
         <v>989</v>
       </c>
       <c r="D256" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E256" t="s">
         <v>618</v>
@@ -25275,7 +25275,7 @@
         <v>990</v>
       </c>
       <c r="D259" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E259" t="s">
         <v>719</v>
@@ -25289,16 +25289,16 @@
         <v>296</v>
       </c>
       <c r="C260" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D260" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E260" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F260" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -25306,16 +25306,16 @@
         <v>228</v>
       </c>
       <c r="C261" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D261" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E261" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F261" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -25349,7 +25349,7 @@
         <v>976</v>
       </c>
       <c r="D263" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E263" t="s">
         <v>592</v>
@@ -25363,16 +25363,16 @@
         <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D264" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E264" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F264" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -25380,16 +25380,16 @@
         <v>196</v>
       </c>
       <c r="C265" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D265" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E265" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F265" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -25397,16 +25397,16 @@
         <v>297</v>
       </c>
       <c r="C266" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D266" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E266" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F266" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -25494,16 +25494,16 @@
         <v>29</v>
       </c>
       <c r="C271" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D271" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E271" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F271" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -25517,7 +25517,7 @@
         <v>984</v>
       </c>
       <c r="D272" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E272" t="s">
         <v>577</v>
@@ -25591,16 +25591,16 @@
         <v>308</v>
       </c>
       <c r="C276" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D276" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E276" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F276" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -25608,16 +25608,16 @@
         <v>29</v>
       </c>
       <c r="C277" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D277" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E277" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F277" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -25785,16 +25785,16 @@
         <v>296</v>
       </c>
       <c r="C286" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D286" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E286" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F286" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -25882,16 +25882,16 @@
         <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D291" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E291" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F291" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -25979,16 +25979,16 @@
         <v>29</v>
       </c>
       <c r="C296" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D296" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E296" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F296" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -26076,16 +26076,16 @@
         <v>29</v>
       </c>
       <c r="C301" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D301" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E301" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F301" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -26099,7 +26099,7 @@
         <v>992</v>
       </c>
       <c r="D302" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E302" t="s">
         <v>583</v>
@@ -26173,16 +26173,16 @@
         <v>29</v>
       </c>
       <c r="C306" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D306" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E306" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F306" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -26316,7 +26316,7 @@
         <v>950</v>
       </c>
       <c r="D313" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E313" t="s">
         <v>570</v>
@@ -26410,16 +26410,16 @@
         <v>296</v>
       </c>
       <c r="C318" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D318" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E318" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F318" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -26430,7 +26430,7 @@
         <v>1818</v>
       </c>
       <c r="C319" s="51" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="D319" t="s">
         <v>569</v>
@@ -26527,16 +26527,16 @@
         <v>29</v>
       </c>
       <c r="C324" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D324" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E324" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F324" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -26604,16 +26604,16 @@
         <v>29</v>
       </c>
       <c r="C328" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D328" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E328" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F328" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -26707,7 +26707,7 @@
         <v>990</v>
       </c>
       <c r="D333" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E333" t="s">
         <v>719</v>
@@ -26721,16 +26721,16 @@
         <v>29</v>
       </c>
       <c r="C334" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D334" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E334" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F334" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -26818,16 +26818,16 @@
         <v>29</v>
       </c>
       <c r="C339" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D339" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E339" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F339" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -26915,16 +26915,16 @@
         <v>29</v>
       </c>
       <c r="C344" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D344" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E344" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F344" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -27012,16 +27012,16 @@
         <v>29</v>
       </c>
       <c r="C349" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D349" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E349" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F349" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -27109,16 +27109,16 @@
         <v>29</v>
       </c>
       <c r="C354" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D354" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E354" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F354" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -27152,7 +27152,7 @@
         <v>966</v>
       </c>
       <c r="D356" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E356" t="s">
         <v>589</v>
@@ -27232,7 +27232,7 @@
         <v>990</v>
       </c>
       <c r="D360" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E360" t="s">
         <v>719</v>
@@ -27246,16 +27246,16 @@
         <v>29</v>
       </c>
       <c r="C361" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D361" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E361" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F361" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -27309,7 +27309,7 @@
         <v>994</v>
       </c>
       <c r="D364" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E364" t="s">
         <v>642</v>
@@ -27363,16 +27363,16 @@
         <v>296</v>
       </c>
       <c r="C367" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D367" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E367" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F367" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -27426,7 +27426,7 @@
         <v>946</v>
       </c>
       <c r="D370" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E370" t="s">
         <v>570</v>
@@ -27460,16 +27460,16 @@
         <v>29</v>
       </c>
       <c r="C372" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D372" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E372" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F372" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -27523,7 +27523,7 @@
         <v>950</v>
       </c>
       <c r="D375" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E375" t="s">
         <v>570</v>
@@ -27617,16 +27617,16 @@
         <v>29</v>
       </c>
       <c r="C380" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D380" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E380" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F380" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -27720,7 +27720,7 @@
         <v>981</v>
       </c>
       <c r="D385" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E385" t="s">
         <v>587</v>
@@ -27774,16 +27774,16 @@
         <v>126</v>
       </c>
       <c r="C388" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D388" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E388" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F388" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -27817,7 +27817,7 @@
         <v>966</v>
       </c>
       <c r="D390" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E390" t="s">
         <v>589</v>
@@ -27837,7 +27837,7 @@
         <v>998</v>
       </c>
       <c r="D391" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E391" t="s">
         <v>658</v>
@@ -27911,16 +27911,16 @@
         <v>29</v>
       </c>
       <c r="C395" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D395" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E395" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F395" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -27994,7 +27994,7 @@
         <v>983</v>
       </c>
       <c r="D399" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E399" t="s">
         <v>585</v>
@@ -28048,16 +28048,16 @@
         <v>54</v>
       </c>
       <c r="C402" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D402" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E402" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F402" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -28111,7 +28111,7 @@
         <v>949</v>
       </c>
       <c r="D405" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E405" t="s">
         <v>587</v>
@@ -28131,7 +28131,7 @@
         <v>950</v>
       </c>
       <c r="D406" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E406" t="s">
         <v>570</v>
@@ -28185,16 +28185,16 @@
         <v>29</v>
       </c>
       <c r="C409" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D409" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E409" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F409" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -28288,7 +28288,7 @@
         <v>966</v>
       </c>
       <c r="D414" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E414" t="s">
         <v>589</v>
@@ -28322,16 +28322,16 @@
         <v>54</v>
       </c>
       <c r="C416" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D416" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E416" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F416" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -28345,7 +28345,7 @@
         <v>999</v>
       </c>
       <c r="D417" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E417" t="s">
         <v>616</v>
@@ -28445,7 +28445,7 @@
         <v>979</v>
       </c>
       <c r="D422" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E422" t="s">
         <v>570</v>
@@ -28459,16 +28459,16 @@
         <v>29</v>
       </c>
       <c r="C423" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D423" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E423" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F423" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -28596,16 +28596,16 @@
         <v>54</v>
       </c>
       <c r="C430" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D430" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E430" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F430" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -28679,7 +28679,7 @@
         <v>983</v>
       </c>
       <c r="D434" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E434" t="s">
         <v>585</v>
@@ -28719,7 +28719,7 @@
         <v>949</v>
       </c>
       <c r="D436" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E436" t="s">
         <v>587</v>
@@ -28733,16 +28733,16 @@
         <v>29</v>
       </c>
       <c r="C437" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D437" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E437" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F437" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -28870,16 +28870,16 @@
         <v>54</v>
       </c>
       <c r="C444" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D444" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E444" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F444" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -29007,16 +29007,16 @@
         <v>29</v>
       </c>
       <c r="C451" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D451" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E451" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F451" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -29050,7 +29050,7 @@
         <v>971</v>
       </c>
       <c r="D453" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E453" t="s">
         <v>618</v>
@@ -29090,7 +29090,7 @@
         <v>950</v>
       </c>
       <c r="D455" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E455" t="s">
         <v>570</v>
@@ -29127,7 +29127,7 @@
         <v>1810</v>
       </c>
       <c r="C457" s="51" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D457" t="s">
         <v>569</v>
@@ -29144,16 +29144,16 @@
         <v>54</v>
       </c>
       <c r="C458" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D458" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E458" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F458" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -29164,16 +29164,16 @@
       </c>
       <c r="B459" s="95"/>
       <c r="C459" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D459" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E459" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F459" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="H459" s="80" t="s">
         <v>1850</v>
@@ -29235,7 +29235,7 @@
         <v>976</v>
       </c>
       <c r="D462" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E462" t="s">
         <v>592</v>
@@ -29249,16 +29249,16 @@
         <v>16</v>
       </c>
       <c r="C463" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D463" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E463" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F463" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -29266,16 +29266,16 @@
         <v>196</v>
       </c>
       <c r="C464" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D464" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E464" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F464" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -29309,7 +29309,7 @@
         <v>1000</v>
       </c>
       <c r="D466" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E466" t="s">
         <v>565</v>
@@ -29389,7 +29389,7 @@
         <v>946</v>
       </c>
       <c r="D470" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E470" t="s">
         <v>570</v>
@@ -29443,16 +29443,16 @@
         <v>296</v>
       </c>
       <c r="C473" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D473" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E473" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F473" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -29540,16 +29540,16 @@
         <v>29</v>
       </c>
       <c r="C478" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D478" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E478" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F478" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -29620,10 +29620,10 @@
         <v>1824</v>
       </c>
       <c r="C482" s="51" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D482" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E482" t="s">
         <v>575</v>
@@ -29643,7 +29643,7 @@
         <v>990</v>
       </c>
       <c r="D483" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E483" t="s">
         <v>719</v>
@@ -29657,16 +29657,16 @@
         <v>126</v>
       </c>
       <c r="C484" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D484" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E484" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F484" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -29680,7 +29680,7 @@
         <v>1003</v>
       </c>
       <c r="D485" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E485" t="s">
         <v>610</v>
@@ -29774,16 +29774,16 @@
         <v>29</v>
       </c>
       <c r="C490" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D490" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E490" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F490" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -29897,7 +29897,7 @@
         <v>990</v>
       </c>
       <c r="D496" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E496" t="s">
         <v>719</v>
@@ -29911,16 +29911,16 @@
         <v>29</v>
       </c>
       <c r="C497" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D497" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E497" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F497" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -30108,16 +30108,16 @@
         <v>29</v>
       </c>
       <c r="C507" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D507" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E507" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F507" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -30251,7 +30251,7 @@
         <v>983</v>
       </c>
       <c r="D514" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E514" t="s">
         <v>585</v>
@@ -30271,7 +30271,7 @@
         <v>966</v>
       </c>
       <c r="D515" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E515" t="s">
         <v>589</v>
@@ -30305,16 +30305,16 @@
         <v>126</v>
       </c>
       <c r="C517" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D517" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E517" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F517" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -30482,16 +30482,16 @@
         <v>29</v>
       </c>
       <c r="C526" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D526" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E526" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F526" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -30545,7 +30545,7 @@
         <v>946</v>
       </c>
       <c r="D529" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E529" t="s">
         <v>570</v>
@@ -30645,7 +30645,7 @@
         <v>990</v>
       </c>
       <c r="D534" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E534" t="s">
         <v>719</v>
@@ -30659,16 +30659,16 @@
         <v>29</v>
       </c>
       <c r="C535" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D535" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E535" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F535" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -30702,7 +30702,7 @@
         <v>1007</v>
       </c>
       <c r="D537" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E537" t="s">
         <v>587</v>
@@ -30776,16 +30776,16 @@
         <v>296</v>
       </c>
       <c r="C541" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D541" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E541" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F541" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -30913,16 +30913,16 @@
         <v>29</v>
       </c>
       <c r="C548" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D548" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E548" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F548" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -30976,7 +30976,7 @@
         <v>981</v>
       </c>
       <c r="D551" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E551" t="s">
         <v>587</v>
@@ -31010,16 +31010,16 @@
         <v>29</v>
       </c>
       <c r="C553" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D553" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E553" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F553" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -31133,7 +31133,7 @@
         <v>981</v>
       </c>
       <c r="D559" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E559" t="s">
         <v>587</v>
@@ -31147,16 +31147,16 @@
         <v>29</v>
       </c>
       <c r="C560" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D560" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E560" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F560" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -31190,7 +31190,7 @@
         <v>966</v>
       </c>
       <c r="D562" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E562" t="s">
         <v>589</v>
@@ -31284,16 +31284,16 @@
         <v>54</v>
       </c>
       <c r="C567" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D567" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E567" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F567" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -31307,7 +31307,7 @@
         <v>971</v>
       </c>
       <c r="D568" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E568" t="s">
         <v>618</v>
@@ -31404,7 +31404,7 @@
         <v>1810</v>
       </c>
       <c r="C573" s="51" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D573" t="s">
         <v>569</v>
@@ -31421,16 +31421,16 @@
         <v>29</v>
       </c>
       <c r="C574" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D574" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E574" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F574" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -31444,7 +31444,7 @@
         <v>946</v>
       </c>
       <c r="D575" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E575" t="s">
         <v>570</v>
@@ -31558,16 +31558,16 @@
         <v>29</v>
       </c>
       <c r="C581" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D581" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E581" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F581" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -31661,7 +31661,7 @@
         <v>989</v>
       </c>
       <c r="D586" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E586" t="s">
         <v>618</v>
@@ -31695,16 +31695,16 @@
         <v>29</v>
       </c>
       <c r="C588" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D588" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E588" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F588" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -31832,16 +31832,16 @@
         <v>29</v>
       </c>
       <c r="C595" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D595" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E595" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F595" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -31929,16 +31929,16 @@
         <v>29</v>
       </c>
       <c r="C600" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D600" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E600" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F600" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -31952,7 +31952,7 @@
         <v>1009</v>
       </c>
       <c r="D601" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E601" t="s">
         <v>612</v>
@@ -32026,16 +32026,16 @@
         <v>29</v>
       </c>
       <c r="C605" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D605" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E605" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F605" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -32209,7 +32209,7 @@
         <v>990</v>
       </c>
       <c r="D614" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E614" t="s">
         <v>719</v>
@@ -32223,16 +32223,16 @@
         <v>29</v>
       </c>
       <c r="C615" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D615" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E615" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F615" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -32286,7 +32286,7 @@
         <v>946</v>
       </c>
       <c r="D618" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E618" t="s">
         <v>570</v>
@@ -32400,16 +32400,16 @@
         <v>54</v>
       </c>
       <c r="C624" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D624" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E624" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F624" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -32420,16 +32420,16 @@
       </c>
       <c r="B625" s="95"/>
       <c r="C625" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D625" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E625" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F625" s="95" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -32517,16 +32517,16 @@
         <v>29</v>
       </c>
       <c r="C630" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D630" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E630" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F630" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -32614,16 +32614,16 @@
         <v>54</v>
       </c>
       <c r="C635" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D635" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E635" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F635" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -32711,16 +32711,16 @@
         <v>29</v>
       </c>
       <c r="C640" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D640" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E640" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F640" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -32808,16 +32808,16 @@
         <v>29</v>
       </c>
       <c r="C645" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D645" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E645" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F645" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -32851,7 +32851,7 @@
         <v>946</v>
       </c>
       <c r="D647" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E647" t="s">
         <v>570</v>
@@ -32965,16 +32965,16 @@
         <v>29</v>
       </c>
       <c r="C653" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D653" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E653" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F653" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -33122,21 +33122,21 @@
         <v>54</v>
       </c>
       <c r="C661" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D661" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="E661" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F661" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="662" spans="1:6">
       <c r="A662" s="98" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B662" s="95"/>
       <c r="C662" s="95"/>
@@ -33155,8 +33155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086B592-18F3-4F53-90A1-CE2F21DA787B}">
   <dimension ref="A1:I668"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F661"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -42208,7 +42208,7 @@
         <v>57</v>
       </c>
       <c r="B457" s="51" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="C457" s="51" t="str">
         <v>hong1</v>
@@ -46220,7 +46220,7 @@
     </row>
     <row r="662" spans="1:6">
       <c r="A662" s="98" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B662" s="95"/>
       <c r="C662" s="95" t="str">

--- a/output7/【河洛文讀注音-閩拼調號】《前赤壁賦》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《前赤壁賦》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B984DF-3EAD-4A84-8C6D-83EBF9D23ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CFBDCE9-94A5-4AAA-8CC9-CD9F787FA09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-105" windowWidth="16440" windowHeight="28320" xr2:uid="{4EA0A38C-B750-42E9-B691-0F234429BA61}"/>
   </bookViews>
@@ -6696,6 +6696,9 @@
     <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
+    <t>雅俗通</t>
+  </si>
+  <si>
     <t>φ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6745,9 +6748,6 @@
   <si>
     <t>【河洛文讀注音-閩拼調號】《前赤壁賦》.xlsx</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>閩拼調符</t>
   </si>
   <si>
     <t>Zian-Cik-Pik-Hu.jpg</t>
@@ -9307,7 +9307,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
@@ -9355,7 +9355,7 @@
         <v>1858</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -9363,7 +9363,7 @@
         <v>1859</v>
       </c>
       <c r="C6" s="88" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -9467,7 +9467,7 @@
         <v>1878</v>
       </c>
       <c r="C18" s="93" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -19822,7 +19822,7 @@
       </c>
       <c r="I3" s="74"/>
       <c r="J3" s="74" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="33.75">
@@ -19856,7 +19856,7 @@
         <v>́</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="33.75">
@@ -19890,7 +19890,7 @@
         <v>̀</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="33.75">
@@ -19921,7 +19921,7 @@
       </c>
       <c r="I6" s="77"/>
       <c r="J6" s="77" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="33.75">
@@ -19955,7 +19955,7 @@
         <v>̂</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="33.75">
@@ -19989,7 +19989,7 @@
         <v>̌</v>
       </c>
       <c r="J8" s="79" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="33.75">
@@ -20023,7 +20023,7 @@
         <v>̄</v>
       </c>
       <c r="J9" s="74" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="33.75">
@@ -20057,7 +20057,7 @@
         <v>̍</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
   </sheetData>
@@ -20111,16 +20111,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>1850</v>
@@ -20243,16 +20243,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D7" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E7" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F7" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H7" s="80" t="s">
         <v>1850</v>
@@ -20321,16 +20321,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D10" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E10" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F10" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H10" s="80" t="s">
         <v>1850</v>
@@ -20402,16 +20402,16 @@
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F13" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H13" s="80" t="s">
         <v>1850</v>
@@ -20535,16 +20535,16 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F18" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H18" s="80" t="s">
         <v>1850</v>
@@ -20653,16 +20653,16 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D23" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E23" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F23" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -20716,7 +20716,7 @@
         <v>946</v>
       </c>
       <c r="D26" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E26" t="s">
         <v>570</v>
@@ -20796,7 +20796,7 @@
         <v>949</v>
       </c>
       <c r="D30" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E30" t="s">
         <v>587</v>
@@ -20816,7 +20816,7 @@
         <v>950</v>
       </c>
       <c r="D31" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E31" t="s">
         <v>570</v>
@@ -20910,16 +20910,16 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D36" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E36" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F36" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -20950,7 +20950,7 @@
         <v>1810</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D38" t="s">
         <v>569</v>
@@ -21007,16 +21007,16 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D41" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E41" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F41" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -21104,16 +21104,16 @@
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D46" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E46" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F46" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -21201,16 +21201,16 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D51" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E51" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F51" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -21318,16 +21318,16 @@
         <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D57" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E57" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F57" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -21361,7 +21361,7 @@
         <v>958</v>
       </c>
       <c r="D59" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E59" t="s">
         <v>633</v>
@@ -21435,16 +21435,16 @@
         <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D63" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E63" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F63" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -21455,16 +21455,16 @@
       </c>
       <c r="B64" s="95"/>
       <c r="C64" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D64" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E64" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F64" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H64" s="80" t="s">
         <v>1850</v>
@@ -21506,7 +21506,7 @@
         <v>960</v>
       </c>
       <c r="D66" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E66" t="s">
         <v>562</v>
@@ -21520,16 +21520,16 @@
         <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D67" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E67" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F67" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -21583,7 +21583,7 @@
         <v>950</v>
       </c>
       <c r="D70" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E70" t="s">
         <v>570</v>
@@ -21677,16 +21677,16 @@
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D75" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E75" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F75" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -21740,7 +21740,7 @@
         <v>950</v>
       </c>
       <c r="D78" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E78" t="s">
         <v>570</v>
@@ -21834,16 +21834,16 @@
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D83" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E83" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F83" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -21931,16 +21931,16 @@
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D88" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E88" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F88" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -22028,16 +22028,16 @@
         <v>126</v>
       </c>
       <c r="C93" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D93" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E93" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F93" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -22071,7 +22071,7 @@
         <v>966</v>
       </c>
       <c r="D95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E95" t="s">
         <v>589</v>
@@ -22091,7 +22091,7 @@
         <v>967</v>
       </c>
       <c r="D96" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E96" t="s">
         <v>618</v>
@@ -22165,16 +22165,16 @@
         <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -22302,16 +22302,16 @@
         <v>54</v>
       </c>
       <c r="C107" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D107" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E107" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F107" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -22462,7 +22462,7 @@
         <v>1810</v>
       </c>
       <c r="C115" s="51" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D115" t="s">
         <v>569</v>
@@ -22479,16 +22479,16 @@
         <v>29</v>
       </c>
       <c r="C116" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D116" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E116" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F116" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -22616,16 +22616,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D123" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E123" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F123" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -22719,7 +22719,7 @@
         <v>971</v>
       </c>
       <c r="D128" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E128" t="s">
         <v>618</v>
@@ -22793,16 +22793,16 @@
         <v>29</v>
       </c>
       <c r="C132" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D132" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E132" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F132" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -22816,7 +22816,7 @@
         <v>946</v>
       </c>
       <c r="D133" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E133" t="s">
         <v>570</v>
@@ -22910,16 +22910,16 @@
         <v>54</v>
       </c>
       <c r="C138" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D138" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E138" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F138" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -22933,7 +22933,7 @@
         <v>950</v>
       </c>
       <c r="D139" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E139" t="s">
         <v>570</v>
@@ -22973,7 +22973,7 @@
         <v>975</v>
       </c>
       <c r="D141" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E141" t="s">
         <v>581</v>
@@ -23047,16 +23047,16 @@
         <v>29</v>
       </c>
       <c r="C145" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D145" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E145" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F145" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -23164,16 +23164,16 @@
         <v>54</v>
       </c>
       <c r="C151" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D151" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E151" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F151" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -23207,7 +23207,7 @@
         <v>976</v>
       </c>
       <c r="D153" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E153" t="s">
         <v>592</v>
@@ -23221,16 +23221,16 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D154" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E154" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F154" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -23238,16 +23238,16 @@
         <v>196</v>
       </c>
       <c r="C155" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D155" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E155" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F155" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -23355,16 +23355,16 @@
         <v>29</v>
       </c>
       <c r="C161" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D161" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E161" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F161" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -23512,16 +23512,16 @@
         <v>54</v>
       </c>
       <c r="C169" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D169" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E169" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F169" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -23595,7 +23595,7 @@
         <v>979</v>
       </c>
       <c r="D173" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E173" t="s">
         <v>570</v>
@@ -23629,16 +23629,16 @@
         <v>29</v>
       </c>
       <c r="C175" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D175" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E175" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F175" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -23752,7 +23752,7 @@
         <v>966</v>
       </c>
       <c r="D181" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E181" t="s">
         <v>589</v>
@@ -23769,7 +23769,7 @@
         <v>1818</v>
       </c>
       <c r="C182" s="51" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D182" t="s">
         <v>569</v>
@@ -23786,16 +23786,16 @@
         <v>54</v>
       </c>
       <c r="C183" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D183" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E183" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F183" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -23803,16 +23803,16 @@
         <v>228</v>
       </c>
       <c r="C184" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D184" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E184" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F184" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -23823,16 +23823,16 @@
       </c>
       <c r="B185" s="95"/>
       <c r="C185" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D185" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E185" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F185" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H185" s="80" t="s">
         <v>1850</v>
@@ -23874,7 +23874,7 @@
         <v>981</v>
       </c>
       <c r="D187" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E187" t="s">
         <v>587</v>
@@ -23968,16 +23968,16 @@
         <v>29</v>
       </c>
       <c r="C192" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D192" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E192" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F192" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -23991,7 +23991,7 @@
         <v>983</v>
       </c>
       <c r="D193" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E193" t="s">
         <v>585</v>
@@ -24085,16 +24085,16 @@
         <v>29</v>
       </c>
       <c r="C198" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D198" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E198" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F198" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -24148,7 +24148,7 @@
         <v>984</v>
       </c>
       <c r="D201" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E201" t="s">
         <v>577</v>
@@ -24168,7 +24168,7 @@
         <v>984</v>
       </c>
       <c r="D202" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E202" t="s">
         <v>577</v>
@@ -24202,16 +24202,16 @@
         <v>29</v>
       </c>
       <c r="C204" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D204" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E204" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F204" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -24245,7 +24245,7 @@
         <v>985</v>
       </c>
       <c r="D206" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E206" t="s">
         <v>603</v>
@@ -24299,16 +24299,16 @@
         <v>29</v>
       </c>
       <c r="C209" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D209" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E209" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F209" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -24396,16 +24396,16 @@
         <v>29</v>
       </c>
       <c r="C214" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D214" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E214" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F214" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -24419,7 +24419,7 @@
         <v>979</v>
       </c>
       <c r="D215" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E215" t="s">
         <v>570</v>
@@ -24439,7 +24439,7 @@
         <v>986</v>
       </c>
       <c r="D216" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E216" t="s">
         <v>581</v>
@@ -24493,16 +24493,16 @@
         <v>29</v>
       </c>
       <c r="C219" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D219" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E219" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F219" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -24590,16 +24590,16 @@
         <v>54</v>
       </c>
       <c r="C224" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D224" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E224" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F224" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -24633,7 +24633,7 @@
         <v>988</v>
       </c>
       <c r="D226" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E226" t="s">
         <v>587</v>
@@ -24727,16 +24727,16 @@
         <v>29</v>
       </c>
       <c r="C231" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D231" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E231" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F231" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -24864,16 +24864,16 @@
         <v>54</v>
       </c>
       <c r="C238" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D238" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E238" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F238" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -24924,7 +24924,7 @@
         <v>1816</v>
       </c>
       <c r="C241" s="51" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D241" t="s">
         <v>564</v>
@@ -24961,16 +24961,16 @@
         <v>29</v>
       </c>
       <c r="C243" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D243" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E243" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F243" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -25058,16 +25058,16 @@
         <v>29</v>
       </c>
       <c r="C248" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D248" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E248" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F248" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -25141,7 +25141,7 @@
         <v>976</v>
       </c>
       <c r="D252" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E252" t="s">
         <v>592</v>
@@ -25155,16 +25155,16 @@
         <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D253" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E253" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F253" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -25172,16 +25172,16 @@
         <v>196</v>
       </c>
       <c r="C254" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D254" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E254" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F254" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -25215,7 +25215,7 @@
         <v>989</v>
       </c>
       <c r="D256" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E256" t="s">
         <v>618</v>
@@ -25275,7 +25275,7 @@
         <v>990</v>
       </c>
       <c r="D259" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E259" t="s">
         <v>719</v>
@@ -25289,16 +25289,16 @@
         <v>296</v>
       </c>
       <c r="C260" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D260" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E260" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F260" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -25306,16 +25306,16 @@
         <v>228</v>
       </c>
       <c r="C261" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D261" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E261" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F261" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -25349,7 +25349,7 @@
         <v>976</v>
       </c>
       <c r="D263" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E263" t="s">
         <v>592</v>
@@ -25363,16 +25363,16 @@
         <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D264" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E264" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F264" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -25380,16 +25380,16 @@
         <v>196</v>
       </c>
       <c r="C265" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D265" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E265" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F265" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -25397,16 +25397,16 @@
         <v>297</v>
       </c>
       <c r="C266" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D266" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E266" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F266" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -25494,16 +25494,16 @@
         <v>29</v>
       </c>
       <c r="C271" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D271" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E271" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F271" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -25517,7 +25517,7 @@
         <v>984</v>
       </c>
       <c r="D272" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E272" t="s">
         <v>577</v>
@@ -25591,16 +25591,16 @@
         <v>308</v>
       </c>
       <c r="C276" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D276" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E276" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F276" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -25608,16 +25608,16 @@
         <v>29</v>
       </c>
       <c r="C277" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D277" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E277" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F277" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -25785,16 +25785,16 @@
         <v>296</v>
       </c>
       <c r="C286" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D286" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E286" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F286" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -25882,16 +25882,16 @@
         <v>29</v>
       </c>
       <c r="C291" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D291" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E291" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F291" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -25979,16 +25979,16 @@
         <v>29</v>
       </c>
       <c r="C296" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D296" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E296" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F296" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -26076,16 +26076,16 @@
         <v>29</v>
       </c>
       <c r="C301" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D301" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E301" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F301" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -26099,7 +26099,7 @@
         <v>992</v>
       </c>
       <c r="D302" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E302" t="s">
         <v>583</v>
@@ -26173,16 +26173,16 @@
         <v>29</v>
       </c>
       <c r="C306" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D306" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E306" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F306" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -26316,7 +26316,7 @@
         <v>950</v>
       </c>
       <c r="D313" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E313" t="s">
         <v>570</v>
@@ -26410,16 +26410,16 @@
         <v>296</v>
       </c>
       <c r="C318" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D318" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E318" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F318" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -26430,7 +26430,7 @@
         <v>1818</v>
       </c>
       <c r="C319" s="51" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="D319" t="s">
         <v>569</v>
@@ -26527,16 +26527,16 @@
         <v>29</v>
       </c>
       <c r="C324" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D324" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E324" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F324" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -26604,16 +26604,16 @@
         <v>29</v>
       </c>
       <c r="C328" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D328" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E328" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F328" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -26707,7 +26707,7 @@
         <v>990</v>
       </c>
       <c r="D333" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E333" t="s">
         <v>719</v>
@@ -26721,16 +26721,16 @@
         <v>29</v>
       </c>
       <c r="C334" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D334" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E334" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F334" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -26818,16 +26818,16 @@
         <v>29</v>
       </c>
       <c r="C339" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D339" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E339" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F339" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -26915,16 +26915,16 @@
         <v>29</v>
       </c>
       <c r="C344" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D344" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E344" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F344" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -27012,16 +27012,16 @@
         <v>29</v>
       </c>
       <c r="C349" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D349" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E349" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F349" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -27109,16 +27109,16 @@
         <v>29</v>
       </c>
       <c r="C354" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D354" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E354" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F354" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -27152,7 +27152,7 @@
         <v>966</v>
       </c>
       <c r="D356" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E356" t="s">
         <v>589</v>
@@ -27232,7 +27232,7 @@
         <v>990</v>
       </c>
       <c r="D360" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E360" t="s">
         <v>719</v>
@@ -27246,16 +27246,16 @@
         <v>29</v>
       </c>
       <c r="C361" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D361" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E361" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F361" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -27309,7 +27309,7 @@
         <v>994</v>
       </c>
       <c r="D364" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E364" t="s">
         <v>642</v>
@@ -27363,16 +27363,16 @@
         <v>296</v>
       </c>
       <c r="C367" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D367" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E367" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F367" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -27426,7 +27426,7 @@
         <v>946</v>
       </c>
       <c r="D370" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E370" t="s">
         <v>570</v>
@@ -27460,16 +27460,16 @@
         <v>29</v>
       </c>
       <c r="C372" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D372" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E372" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F372" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -27523,7 +27523,7 @@
         <v>950</v>
       </c>
       <c r="D375" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E375" t="s">
         <v>570</v>
@@ -27617,16 +27617,16 @@
         <v>29</v>
       </c>
       <c r="C380" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D380" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E380" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F380" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -27720,7 +27720,7 @@
         <v>981</v>
       </c>
       <c r="D385" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E385" t="s">
         <v>587</v>
@@ -27774,16 +27774,16 @@
         <v>126</v>
       </c>
       <c r="C388" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D388" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E388" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F388" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -27817,7 +27817,7 @@
         <v>966</v>
       </c>
       <c r="D390" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E390" t="s">
         <v>589</v>
@@ -27837,7 +27837,7 @@
         <v>998</v>
       </c>
       <c r="D391" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E391" t="s">
         <v>658</v>
@@ -27911,16 +27911,16 @@
         <v>29</v>
       </c>
       <c r="C395" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D395" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E395" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F395" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -27994,7 +27994,7 @@
         <v>983</v>
       </c>
       <c r="D399" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E399" t="s">
         <v>585</v>
@@ -28048,16 +28048,16 @@
         <v>54</v>
       </c>
       <c r="C402" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D402" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E402" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F402" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -28111,7 +28111,7 @@
         <v>949</v>
       </c>
       <c r="D405" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E405" t="s">
         <v>587</v>
@@ -28131,7 +28131,7 @@
         <v>950</v>
       </c>
       <c r="D406" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E406" t="s">
         <v>570</v>
@@ -28185,16 +28185,16 @@
         <v>29</v>
       </c>
       <c r="C409" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D409" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E409" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F409" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -28288,7 +28288,7 @@
         <v>966</v>
       </c>
       <c r="D414" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E414" t="s">
         <v>589</v>
@@ -28322,16 +28322,16 @@
         <v>54</v>
       </c>
       <c r="C416" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D416" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E416" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F416" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -28345,7 +28345,7 @@
         <v>999</v>
       </c>
       <c r="D417" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E417" t="s">
         <v>616</v>
@@ -28445,7 +28445,7 @@
         <v>979</v>
       </c>
       <c r="D422" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E422" t="s">
         <v>570</v>
@@ -28459,16 +28459,16 @@
         <v>29</v>
       </c>
       <c r="C423" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D423" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E423" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F423" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -28596,16 +28596,16 @@
         <v>54</v>
       </c>
       <c r="C430" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D430" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E430" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F430" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -28679,7 +28679,7 @@
         <v>983</v>
       </c>
       <c r="D434" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E434" t="s">
         <v>585</v>
@@ -28719,7 +28719,7 @@
         <v>949</v>
       </c>
       <c r="D436" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E436" t="s">
         <v>587</v>
@@ -28733,16 +28733,16 @@
         <v>29</v>
       </c>
       <c r="C437" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D437" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E437" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F437" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -28870,16 +28870,16 @@
         <v>54</v>
       </c>
       <c r="C444" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D444" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E444" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F444" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -29007,16 +29007,16 @@
         <v>29</v>
       </c>
       <c r="C451" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D451" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E451" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F451" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -29050,7 +29050,7 @@
         <v>971</v>
       </c>
       <c r="D453" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E453" t="s">
         <v>618</v>
@@ -29090,7 +29090,7 @@
         <v>950</v>
       </c>
       <c r="D455" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E455" t="s">
         <v>570</v>
@@ -29127,7 +29127,7 @@
         <v>1810</v>
       </c>
       <c r="C457" s="51" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D457" t="s">
         <v>569</v>
@@ -29144,16 +29144,16 @@
         <v>54</v>
       </c>
       <c r="C458" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D458" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E458" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F458" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -29164,16 +29164,16 @@
       </c>
       <c r="B459" s="95"/>
       <c r="C459" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D459" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E459" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F459" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H459" s="80" t="s">
         <v>1850</v>
@@ -29235,7 +29235,7 @@
         <v>976</v>
       </c>
       <c r="D462" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E462" t="s">
         <v>592</v>
@@ -29249,16 +29249,16 @@
         <v>16</v>
       </c>
       <c r="C463" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D463" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E463" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F463" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -29266,16 +29266,16 @@
         <v>196</v>
       </c>
       <c r="C464" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D464" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E464" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F464" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -29309,7 +29309,7 @@
         <v>1000</v>
       </c>
       <c r="D466" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E466" t="s">
         <v>565</v>
@@ -29389,7 +29389,7 @@
         <v>946</v>
       </c>
       <c r="D470" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E470" t="s">
         <v>570</v>
@@ -29443,16 +29443,16 @@
         <v>296</v>
       </c>
       <c r="C473" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D473" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E473" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F473" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -29540,16 +29540,16 @@
         <v>29</v>
       </c>
       <c r="C478" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D478" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E478" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F478" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -29620,10 +29620,10 @@
         <v>1824</v>
       </c>
       <c r="C482" s="51" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D482" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E482" t="s">
         <v>575</v>
@@ -29643,7 +29643,7 @@
         <v>990</v>
       </c>
       <c r="D483" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E483" t="s">
         <v>719</v>
@@ -29657,16 +29657,16 @@
         <v>126</v>
       </c>
       <c r="C484" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D484" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E484" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F484" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -29680,7 +29680,7 @@
         <v>1003</v>
       </c>
       <c r="D485" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E485" t="s">
         <v>610</v>
@@ -29774,16 +29774,16 @@
         <v>29</v>
       </c>
       <c r="C490" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D490" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E490" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F490" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -29897,7 +29897,7 @@
         <v>990</v>
       </c>
       <c r="D496" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E496" t="s">
         <v>719</v>
@@ -29911,16 +29911,16 @@
         <v>29</v>
       </c>
       <c r="C497" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D497" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E497" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F497" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -30108,16 +30108,16 @@
         <v>29</v>
       </c>
       <c r="C507" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D507" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E507" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F507" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -30251,7 +30251,7 @@
         <v>983</v>
       </c>
       <c r="D514" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E514" t="s">
         <v>585</v>
@@ -30271,7 +30271,7 @@
         <v>966</v>
       </c>
       <c r="D515" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E515" t="s">
         <v>589</v>
@@ -30305,16 +30305,16 @@
         <v>126</v>
       </c>
       <c r="C517" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D517" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E517" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F517" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -30482,16 +30482,16 @@
         <v>29</v>
       </c>
       <c r="C526" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D526" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E526" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F526" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -30545,7 +30545,7 @@
         <v>946</v>
       </c>
       <c r="D529" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E529" t="s">
         <v>570</v>
@@ -30645,7 +30645,7 @@
         <v>990</v>
       </c>
       <c r="D534" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E534" t="s">
         <v>719</v>
@@ -30659,16 +30659,16 @@
         <v>29</v>
       </c>
       <c r="C535" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D535" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E535" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F535" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -30702,7 +30702,7 @@
         <v>1007</v>
       </c>
       <c r="D537" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E537" t="s">
         <v>587</v>
@@ -30776,16 +30776,16 @@
         <v>296</v>
       </c>
       <c r="C541" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D541" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E541" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F541" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -30913,16 +30913,16 @@
         <v>29</v>
       </c>
       <c r="C548" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D548" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E548" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F548" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -30976,7 +30976,7 @@
         <v>981</v>
       </c>
       <c r="D551" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E551" t="s">
         <v>587</v>
@@ -31010,16 +31010,16 @@
         <v>29</v>
       </c>
       <c r="C553" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D553" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E553" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F553" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -31133,7 +31133,7 @@
         <v>981</v>
       </c>
       <c r="D559" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E559" t="s">
         <v>587</v>
@@ -31147,16 +31147,16 @@
         <v>29</v>
       </c>
       <c r="C560" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D560" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E560" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F560" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -31190,7 +31190,7 @@
         <v>966</v>
       </c>
       <c r="D562" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E562" t="s">
         <v>589</v>
@@ -31284,16 +31284,16 @@
         <v>54</v>
       </c>
       <c r="C567" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D567" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E567" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F567" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -31307,7 +31307,7 @@
         <v>971</v>
       </c>
       <c r="D568" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E568" t="s">
         <v>618</v>
@@ -31404,7 +31404,7 @@
         <v>1810</v>
       </c>
       <c r="C573" s="51" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="D573" t="s">
         <v>569</v>
@@ -31421,16 +31421,16 @@
         <v>29</v>
       </c>
       <c r="C574" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D574" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E574" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F574" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -31444,7 +31444,7 @@
         <v>946</v>
       </c>
       <c r="D575" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E575" t="s">
         <v>570</v>
@@ -31558,16 +31558,16 @@
         <v>29</v>
       </c>
       <c r="C581" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D581" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E581" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F581" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -31661,7 +31661,7 @@
         <v>989</v>
       </c>
       <c r="D586" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E586" t="s">
         <v>618</v>
@@ -31695,16 +31695,16 @@
         <v>29</v>
       </c>
       <c r="C588" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D588" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E588" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F588" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -31832,16 +31832,16 @@
         <v>29</v>
       </c>
       <c r="C595" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D595" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E595" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F595" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -31929,16 +31929,16 @@
         <v>29</v>
       </c>
       <c r="C600" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D600" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E600" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F600" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -31952,7 +31952,7 @@
         <v>1009</v>
       </c>
       <c r="D601" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E601" t="s">
         <v>612</v>
@@ -32026,16 +32026,16 @@
         <v>29</v>
       </c>
       <c r="C605" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D605" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E605" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F605" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -32209,7 +32209,7 @@
         <v>990</v>
       </c>
       <c r="D614" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E614" t="s">
         <v>719</v>
@@ -32223,16 +32223,16 @@
         <v>29</v>
       </c>
       <c r="C615" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D615" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E615" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F615" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -32286,7 +32286,7 @@
         <v>946</v>
       </c>
       <c r="D618" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E618" t="s">
         <v>570</v>
@@ -32400,16 +32400,16 @@
         <v>54</v>
       </c>
       <c r="C624" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D624" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E624" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F624" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -32420,16 +32420,16 @@
       </c>
       <c r="B625" s="95"/>
       <c r="C625" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D625" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E625" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F625" s="95" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -32517,16 +32517,16 @@
         <v>29</v>
       </c>
       <c r="C630" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D630" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E630" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F630" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -32614,16 +32614,16 @@
         <v>54</v>
       </c>
       <c r="C635" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D635" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E635" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F635" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -32711,16 +32711,16 @@
         <v>29</v>
       </c>
       <c r="C640" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D640" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E640" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F640" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -32808,16 +32808,16 @@
         <v>29</v>
       </c>
       <c r="C645" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D645" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E645" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F645" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -32851,7 +32851,7 @@
         <v>946</v>
       </c>
       <c r="D647" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E647" t="s">
         <v>570</v>
@@ -32965,16 +32965,16 @@
         <v>29</v>
       </c>
       <c r="C653" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D653" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E653" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F653" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="654" spans="1:6">
@@ -33122,21 +33122,21 @@
         <v>54</v>
       </c>
       <c r="C661" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D661" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="E661" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F661" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="662" spans="1:6">
       <c r="A662" s="98" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B662" s="95"/>
       <c r="C662" s="95"/>
@@ -42208,7 +42208,7 @@
         <v>57</v>
       </c>
       <c r="B457" s="51" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C457" s="51" t="str">
         <v>hong1</v>
@@ -46220,7 +46220,7 @@
     </row>
     <row r="662" spans="1:6">
       <c r="A662" s="98" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="B662" s="95"/>
       <c r="C662" s="95" t="str">
